--- a/results/NC/nc_results.xlsx
+++ b/results/NC/nc_results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MEDSL\election_night2020\results\NC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7869F97D-0530-4B80-8E77-773D68E7234A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F68983-C76F-47E0-9EBF-7E329C7012DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82440632-05D3-49D6-9412-CA78FAC14107}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{82440632-05D3-49D6-9412-CA78FAC14107}"/>
   </bookViews>
   <sheets>
     <sheet name="11041100" sheetId="1" r:id="rId1"/>
+    <sheet name="11051130am" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="121">
   <si>
     <t>county</t>
   </si>
@@ -352,13 +353,58 @@
   </si>
   <si>
     <t>DONALD TRUMP</t>
+  </si>
+  <si>
+    <t>pct_returned</t>
+  </si>
+  <si>
+    <t>95% in</t>
+  </si>
+  <si>
+    <t>99% in</t>
+  </si>
+  <si>
+    <t>93.2% in</t>
+  </si>
+  <si>
+    <t>92.4% in</t>
+  </si>
+  <si>
+    <t>88.4% in</t>
+  </si>
+  <si>
+    <t>91.4% in</t>
+  </si>
+  <si>
+    <t>89% in</t>
+  </si>
+  <si>
+    <t>94.5% in</t>
+  </si>
+  <si>
+    <t>81.6% in</t>
+  </si>
+  <si>
+    <t>94.1% in</t>
+  </si>
+  <si>
+    <t>92.2% in</t>
+  </si>
+  <si>
+    <t>94.9% in</t>
+  </si>
+  <si>
+    <t>94.3% in</t>
+  </si>
+  <si>
+    <t>91.8% in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,6 +454,12 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF2A2A2A"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -417,7 +469,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -434,11 +486,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFEBEBEB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFEBEBEB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -469,6 +541,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DB555A-12AC-4430-81C4-444D3E048B66}">
   <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1935,4 +2025,1464 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358F937D-30DA-4786-AE46-A8C2B9D4FC3B}">
+  <dimension ref="A1:D106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="12">
+        <v>45490</v>
+      </c>
+      <c r="C2" s="12">
+        <v>38186</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11">
+        <v>15806</v>
+      </c>
+      <c r="C3" s="11">
+        <v>4113</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11">
+        <v>4501</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1480</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="11">
+        <v>5301</v>
+      </c>
+      <c r="C5" s="11">
+        <v>5768</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11">
+        <v>11368</v>
+      </c>
+      <c r="C6" s="11">
+        <v>4149</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="11">
+        <v>7092</v>
+      </c>
+      <c r="C7" s="11">
+        <v>2171</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="11">
+        <v>16352</v>
+      </c>
+      <c r="C8" s="11">
+        <v>9575</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="11">
+        <v>3778</v>
+      </c>
+      <c r="C9" s="11">
+        <v>5846</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="11">
+        <v>9623</v>
+      </c>
+      <c r="C10" s="11">
+        <v>7281</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="11">
+        <v>55373</v>
+      </c>
+      <c r="C11" s="11">
+        <v>32984</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="11">
+        <v>61983</v>
+      </c>
+      <c r="C12" s="11">
+        <v>95881</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="11">
+        <v>30814</v>
+      </c>
+      <c r="C13" s="11">
+        <v>12985</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="11">
+        <v>62722</v>
+      </c>
+      <c r="C14" s="11">
+        <v>51594</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="11">
+        <v>31877</v>
+      </c>
+      <c r="C15" s="11">
+        <v>10105</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="11">
+        <v>4277</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1515</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="11">
+        <v>29886</v>
+      </c>
+      <c r="C17" s="11">
+        <v>11999</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="11">
+        <v>7040</v>
+      </c>
+      <c r="C18" s="11">
+        <v>4831</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="11">
+        <v>56203</v>
+      </c>
+      <c r="C19" s="11">
+        <v>25420</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="11">
+        <v>21055</v>
+      </c>
+      <c r="C20" s="11">
+        <v>26642</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="11">
+        <v>12568</v>
+      </c>
+      <c r="C21" s="11">
+        <v>3563</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="11">
+        <v>4458</v>
+      </c>
+      <c r="C22" s="11">
+        <v>3232</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="11">
+        <v>5074</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1685</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="11">
+        <v>33664</v>
+      </c>
+      <c r="C24" s="11">
+        <v>16879</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="11">
+        <v>16696</v>
+      </c>
+      <c r="C25" s="11">
+        <v>9382</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="11">
+        <v>30831</v>
+      </c>
+      <c r="C26" s="11">
+        <v>20977</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="11">
+        <v>59498</v>
+      </c>
+      <c r="C27" s="11">
+        <v>83533</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="11">
+        <v>11566</v>
+      </c>
+      <c r="C28" s="11">
+        <v>4151</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="11">
+        <v>13844</v>
+      </c>
+      <c r="C29" s="11">
+        <v>9855</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="11">
+        <v>62143</v>
+      </c>
+      <c r="C30" s="11">
+        <v>21483</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="11">
+        <v>18115</v>
+      </c>
+      <c r="C31" s="11">
+        <v>6653</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="11">
+        <v>13703</v>
+      </c>
+      <c r="C32" s="11">
+        <v>8676</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="11">
+        <v>31827</v>
+      </c>
+      <c r="C33" s="11">
+        <v>142770</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="11">
+        <v>9139</v>
+      </c>
+      <c r="C34" s="11">
+        <v>15935</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="11">
+        <v>84176</v>
+      </c>
+      <c r="C35" s="11">
+        <v>111769</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="11">
+        <v>20748</v>
+      </c>
+      <c r="C36" s="11">
+        <v>15776</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="11">
+        <v>72132</v>
+      </c>
+      <c r="C37" s="11">
+        <v>40231</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="11">
+        <v>3354</v>
+      </c>
+      <c r="C38" s="11">
+        <v>2540</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="11">
+        <v>3667</v>
+      </c>
+      <c r="C39" s="13">
+        <v>896</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="11">
+        <v>16548</v>
+      </c>
+      <c r="C40" s="11">
+        <v>14448</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="11">
+        <v>4858</v>
+      </c>
+      <c r="C41" s="11">
+        <v>3820</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="11">
+        <v>106384</v>
+      </c>
+      <c r="C42" s="11">
+        <v>171538</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="11">
+        <v>9973</v>
+      </c>
+      <c r="C43" s="11">
+        <v>15382</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="11">
+        <v>34905</v>
+      </c>
+      <c r="C44" s="11">
+        <v>21839</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="11">
+        <v>22698</v>
+      </c>
+      <c r="C45" s="11">
+        <v>13095</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="11">
+        <v>39810</v>
+      </c>
+      <c r="C46" s="11">
+        <v>27014</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="11">
+        <v>3470</v>
+      </c>
+      <c r="C47" s="11">
+        <v>7077</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="11">
+        <v>9601</v>
+      </c>
+      <c r="C48" s="11">
+        <v>11929</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="11">
+        <v>1408</v>
+      </c>
+      <c r="C49" s="11">
+        <v>1035</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="11">
+        <v>66439</v>
+      </c>
+      <c r="C50" s="11">
+        <v>33426</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="11">
+        <v>11263</v>
+      </c>
+      <c r="C51" s="11">
+        <v>9522</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="11">
+        <v>67901</v>
+      </c>
+      <c r="C52" s="11">
+        <v>40861</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="11">
+        <v>3267</v>
+      </c>
+      <c r="C53" s="11">
+        <v>2175</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="11">
+        <v>16388</v>
+      </c>
+      <c r="C54" s="11">
+        <v>12076</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="11">
+        <v>14500</v>
+      </c>
+      <c r="C55" s="11">
+        <v>13494</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="11">
+        <v>36167</v>
+      </c>
+      <c r="C56" s="11">
+        <v>13178</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="11">
+        <v>16839</v>
+      </c>
+      <c r="C57" s="11">
+        <v>5807</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="11">
+        <v>14152</v>
+      </c>
+      <c r="C58" s="11">
+        <v>6213</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="11">
+        <v>7928</v>
+      </c>
+      <c r="C59" s="11">
+        <v>4878</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="11">
+        <v>6493</v>
+      </c>
+      <c r="C60" s="11">
+        <v>5876</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="11">
+        <v>178066</v>
+      </c>
+      <c r="C61" s="11">
+        <v>375503</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="11">
+        <v>7041</v>
+      </c>
+      <c r="C62" s="11">
+        <v>1852</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="11">
+        <v>8363</v>
+      </c>
+      <c r="C63" s="11">
+        <v>4305</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="11">
+        <v>36459</v>
+      </c>
+      <c r="C64" s="11">
+        <v>20547</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="11">
+        <v>25653</v>
+      </c>
+      <c r="C65" s="11">
+        <v>25702</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="11">
+        <v>62420</v>
+      </c>
+      <c r="C66" s="11">
+        <v>64876</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="11">
+        <v>3977</v>
+      </c>
+      <c r="C67" s="11">
+        <v>6048</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="11">
+        <v>45016</v>
+      </c>
+      <c r="C68" s="11">
+        <v>23474</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="11">
+        <v>19993</v>
+      </c>
+      <c r="C69" s="11">
+        <v>63097</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="11">
+        <v>4815</v>
+      </c>
+      <c r="C70" s="11">
+        <v>2699</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="11">
+        <v>9626</v>
+      </c>
+      <c r="C71" s="11">
+        <v>9653</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="11">
+        <v>21833</v>
+      </c>
+      <c r="C72" s="11">
+        <v>11655</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="11">
+        <v>4894</v>
+      </c>
+      <c r="C73" s="11">
+        <v>2485</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="11">
+        <v>13104</v>
+      </c>
+      <c r="C74" s="11">
+        <v>8416</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="11">
+        <v>38437</v>
+      </c>
+      <c r="C75" s="11">
+        <v>46515</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="11">
+        <v>7643</v>
+      </c>
+      <c r="C76" s="11">
+        <v>4485</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="11">
+        <v>56589</v>
+      </c>
+      <c r="C77" s="11">
+        <v>15506</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="11">
+        <v>11752</v>
+      </c>
+      <c r="C78" s="11">
+        <v>8676</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="11">
+        <v>25927</v>
+      </c>
+      <c r="C79" s="11">
+        <v>17998</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="11">
+        <v>30955</v>
+      </c>
+      <c r="C80" s="11">
+        <v>15766</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="11">
+        <v>49053</v>
+      </c>
+      <c r="C81" s="11">
+        <v>22889</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="11">
+        <v>24631</v>
+      </c>
+      <c r="C82" s="11">
+        <v>9049</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="11">
+        <v>17132</v>
+      </c>
+      <c r="C83" s="11">
+        <v>10606</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="11">
+        <v>7399</v>
+      </c>
+      <c r="C84" s="11">
+        <v>7137</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="11">
+        <v>25297</v>
+      </c>
+      <c r="C85" s="11">
+        <v>8037</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="11">
+        <v>19997</v>
+      </c>
+      <c r="C86" s="11">
+        <v>5258</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="11">
+        <v>27344</v>
+      </c>
+      <c r="C87" s="11">
+        <v>8635</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="11">
+        <v>4152</v>
+      </c>
+      <c r="C88" s="11">
+        <v>2765</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="11">
+        <v>11578</v>
+      </c>
+      <c r="C89" s="11">
+        <v>8413</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="11">
+        <v>1043</v>
+      </c>
+      <c r="C90" s="13">
+        <v>757</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="11">
+        <v>79778</v>
+      </c>
+      <c r="C91" s="11">
+        <v>48199</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="11">
+        <v>8385</v>
+      </c>
+      <c r="C92" s="11">
+        <v>12412</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="11">
+        <v>223466</v>
+      </c>
+      <c r="C93" s="11">
+        <v>388686</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="11">
+        <v>3739</v>
+      </c>
+      <c r="C94" s="11">
+        <v>6344</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="11">
+        <v>2778</v>
+      </c>
+      <c r="C95" s="11">
+        <v>3387</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="11">
+        <v>14332</v>
+      </c>
+      <c r="C96" s="11">
+        <v>16925</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="11">
+        <v>30505</v>
+      </c>
+      <c r="C97" s="11">
+        <v>23986</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="11">
+        <v>27397</v>
+      </c>
+      <c r="C98" s="11">
+        <v>7445</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="11">
+        <v>19473</v>
+      </c>
+      <c r="C99" s="11">
+        <v>20579</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="11">
+        <v>15861</v>
+      </c>
+      <c r="C100" s="11">
+        <v>3744</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="11">
+        <v>7481</v>
+      </c>
+      <c r="C101" s="11">
+        <v>3678</v>
+      </c>
+      <c r="D101" s="15">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A105" s="6">
+        <v>0.501</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A106" s="7">
+        <v>2732120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>